--- a/state_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
+++ b/state_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U226"/>
+  <dimension ref="A1:U246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74638597779038</v>
+        <v>1.70215642819508</v>
       </c>
       <c r="H2" t="n">
-        <v>6.37007115527901</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.505</v>
+        <v>5.025</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>3.1054</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.79</v>
       </c>
       <c r="O2" t="n">
         <v>1871306</v>
@@ -651,7 +651,7 @@
         <v>0.0155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0157443052138886</v>
+        <v>0.0157475891947297</v>
       </c>
       <c r="H3" t="n">
         <v>0.067</v>
@@ -732,7 +732,7 @@
         <v>0.0155</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0157443052138886</v>
+        <v>0.0157475891947297</v>
       </c>
       <c r="H4" t="n">
         <v>0.067</v>
@@ -1153,7 +1153,7 @@
         <v>0.00801</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0122383260482243</v>
+        <v>0.0122792725885028</v>
       </c>
       <c r="H9" t="n">
         <v>0.0732742534929928</v>
@@ -1234,7 +1234,7 @@
         <v>0.00801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0122383260482243</v>
+        <v>0.0122792725885028</v>
       </c>
       <c r="H10" t="n">
         <v>0.0732742534929928</v>
@@ -1473,7 +1473,7 @@
         <v>0.605</v>
       </c>
       <c r="G13" t="n">
-        <v>0.598368421052632</v>
+        <v>0.598366666666667</v>
       </c>
       <c r="H13" t="n">
         <v>1.253</v>
@@ -1550,7 +1550,7 @@
         <v>0.605</v>
       </c>
       <c r="G14" t="n">
-        <v>0.598368421052632</v>
+        <v>0.598366666666667</v>
       </c>
       <c r="H14" t="n">
         <v>1.253</v>
@@ -1939,13 +1939,13 @@
         <v>1.24</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63558771045179</v>
+        <v>1.59226094344682</v>
       </c>
       <c r="H19" t="n">
-        <v>6.37007115527901</v>
+        <v>5.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
         <v>2.5</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O19" t="n">
         <v>1871306</v>
@@ -2020,7 +2020,7 @@
         <v>0.016</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0159415361214017</v>
+        <v>0.0159432726457879</v>
       </c>
       <c r="H20" t="n">
         <v>0.067</v>
@@ -2101,7 +2101,7 @@
         <v>0.016</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0159415361214017</v>
+        <v>0.0159432726457879</v>
       </c>
       <c r="H21" t="n">
         <v>0.067</v>
@@ -2522,7 +2522,7 @@
         <v>0.01385</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0159390534911659</v>
+        <v>0.0159584335745339</v>
       </c>
       <c r="H26" t="n">
         <v>0.0732742534929928</v>
@@ -2603,7 +2603,7 @@
         <v>0.01385</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0159390534911659</v>
+        <v>0.0159584335745339</v>
       </c>
       <c r="H27" t="n">
         <v>0.0732742534929928</v>
@@ -2842,7 +2842,7 @@
         <v>0.609</v>
       </c>
       <c r="G30" t="n">
-        <v>0.608824561403509</v>
+        <v>0.608822807017544</v>
       </c>
       <c r="H30" t="n">
         <v>1.253</v>
@@ -2919,7 +2919,7 @@
         <v>0.609</v>
       </c>
       <c r="G31" t="n">
-        <v>0.608824561403509</v>
+        <v>0.608822807017544</v>
       </c>
       <c r="H31" t="n">
         <v>1.253</v>
@@ -3308,13 +3308,13 @@
         <v>1.05</v>
       </c>
       <c r="G36" t="n">
-        <v>1.67832195412203</v>
+        <v>1.63820457726557</v>
       </c>
       <c r="H36" t="n">
-        <v>6.37007115527901</v>
+        <v>5.6</v>
       </c>
       <c r="I36" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
         <v>3.496</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="O36" t="n">
         <v>1871306</v>
@@ -3389,7 +3389,7 @@
         <v>0.015</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0147926103190563</v>
+        <v>0.0147934593774162</v>
       </c>
       <c r="H37" t="n">
         <v>0.039</v>
@@ -3470,7 +3470,7 @@
         <v>0.015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0147926103190563</v>
+        <v>0.0147934593774162</v>
       </c>
       <c r="H38" t="n">
         <v>0.039</v>
@@ -3891,7 +3891,7 @@
         <v>0.01414</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0162462578673952</v>
+        <v>0.0162562765498023</v>
       </c>
       <c r="H43" t="n">
         <v>0.0732742534929928</v>
@@ -3972,7 +3972,7 @@
         <v>0.01414</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0162462578673952</v>
+        <v>0.0162562765498023</v>
       </c>
       <c r="H44" t="n">
         <v>0.0732742534929928</v>
@@ -4211,7 +4211,7 @@
         <v>0.5815</v>
       </c>
       <c r="G47" t="n">
-        <v>0.591689655172414</v>
+        <v>0.591662068965517</v>
       </c>
       <c r="H47" t="n">
         <v>1.253</v>
@@ -4288,7 +4288,7 @@
         <v>0.5815</v>
       </c>
       <c r="G48" t="n">
-        <v>0.591689655172414</v>
+        <v>0.591662068965517</v>
       </c>
       <c r="H48" t="n">
         <v>1.253</v>
@@ -4677,13 +4677,13 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>1.39159958609092</v>
+        <v>1.36152856356998</v>
       </c>
       <c r="H53" t="n">
-        <v>6.37007115527901</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>4.28</v>
+        <v>4.20078</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>2.5</v>
       </c>
       <c r="N53" t="n">
-        <v>3.598</v>
+        <v>3.61103</v>
       </c>
       <c r="O53" t="n">
         <v>1871306</v>
@@ -4758,7 +4758,7 @@
         <v>0.015</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0148512328319226</v>
+        <v>0.0148515109949141</v>
       </c>
       <c r="H54" t="n">
         <v>0.039</v>
@@ -4839,7 +4839,7 @@
         <v>0.015</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0148512328319226</v>
+        <v>0.0148515109949141</v>
       </c>
       <c r="H55" t="n">
         <v>0.039</v>
@@ -5260,7 +5260,7 @@
         <v>0.0136</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0144895641942743</v>
+        <v>0.0144977914825932</v>
       </c>
       <c r="H60" t="n">
         <v>0.065</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00356</v>
+        <v>0.00357</v>
       </c>
       <c r="M60" t="n">
         <v>0.02752</v>
@@ -5341,7 +5341,7 @@
         <v>0.0136</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0144895641942743</v>
+        <v>0.0144977914825932</v>
       </c>
       <c r="H61" t="n">
         <v>0.065</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00356</v>
+        <v>0.00357</v>
       </c>
       <c r="M61" t="n">
         <v>0.02752</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.5665</v>
+        <v>0.56675</v>
       </c>
       <c r="G64" t="n">
-        <v>0.571948275862069</v>
+        <v>0.571906896551724</v>
       </c>
       <c r="H64" t="n">
         <v>0.992</v>
@@ -5594,10 +5594,10 @@
         <v>0.419</v>
       </c>
       <c r="M64" t="n">
-        <v>0.81772</v>
+        <v>0.81785</v>
       </c>
       <c r="N64" t="n">
-        <v>0.8979200000000001</v>
+        <v>0.89799</v>
       </c>
       <c r="O64" t="n">
         <v>1871306</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.5665</v>
+        <v>0.56675</v>
       </c>
       <c r="G65" t="n">
-        <v>0.571948275862069</v>
+        <v>0.571906896551724</v>
       </c>
       <c r="H65" t="n">
         <v>0.992</v>
@@ -5671,10 +5671,10 @@
         <v>0.419</v>
       </c>
       <c r="M65" t="n">
-        <v>0.81772</v>
+        <v>0.81785</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8979200000000001</v>
+        <v>0.89799</v>
       </c>
       <c r="O65" t="n">
         <v>1871306</v>
@@ -6046,13 +6046,13 @@
         <v>0.75</v>
       </c>
       <c r="G70" t="n">
-        <v>1.20248070675818</v>
+        <v>1.22001415178684</v>
       </c>
       <c r="H70" t="n">
         <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>3.535</v>
+        <v>3.55608</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>2.86601</v>
+        <v>3.40843</v>
       </c>
       <c r="O70" t="n">
         <v>1871306</v>
@@ -6127,7 +6127,7 @@
         <v>0.014</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0137870226106136</v>
+        <v>0.0137872752526138</v>
       </c>
       <c r="H71" t="n">
         <v>0.025</v>
@@ -6208,7 +6208,7 @@
         <v>0.014</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0137870226106136</v>
+        <v>0.0137872752526138</v>
       </c>
       <c r="H72" t="n">
         <v>0.025</v>
@@ -6629,7 +6629,7 @@
         <v>0.00465</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0112882631114893</v>
+        <v>0.0113129535588838</v>
       </c>
       <c r="H77" t="n">
         <v>0.0505298490608491</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00136</v>
+        <v>0.00144</v>
       </c>
       <c r="M77" t="n">
         <v>0.02324</v>
@@ -6710,7 +6710,7 @@
         <v>0.00465</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0112882631114893</v>
+        <v>0.0113129535588838</v>
       </c>
       <c r="H78" t="n">
         <v>0.0505298490608491</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00136</v>
+        <v>0.00144</v>
       </c>
       <c r="M78" t="n">
         <v>0.02324</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.543</v>
+        <v>0.5425</v>
       </c>
       <c r="G81" t="n">
-        <v>0.537542372881356</v>
+        <v>0.537481355932203</v>
       </c>
       <c r="H81" t="n">
         <v>0.992</v>
@@ -6963,7 +6963,7 @@
         <v>0.3775</v>
       </c>
       <c r="M81" t="n">
-        <v>0.74805</v>
+        <v>0.74791</v>
       </c>
       <c r="N81" t="n">
         <v>0.89506</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.543</v>
+        <v>0.5425</v>
       </c>
       <c r="G82" t="n">
-        <v>0.537542372881356</v>
+        <v>0.537481355932203</v>
       </c>
       <c r="H82" t="n">
         <v>0.992</v>
@@ -7040,7 +7040,7 @@
         <v>0.3775</v>
       </c>
       <c r="M82" t="n">
-        <v>0.74805</v>
+        <v>0.74791</v>
       </c>
       <c r="N82" t="n">
         <v>0.89506</v>
@@ -7492,13 +7492,13 @@
         <v>0.5</v>
       </c>
       <c r="G88" t="n">
-        <v>1.08676572218963</v>
+        <v>1.10439814339068</v>
       </c>
       <c r="H88" t="n">
         <v>4.2</v>
       </c>
       <c r="I88" t="n">
-        <v>3.535</v>
+        <v>3.55608</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -7509,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>2.86601</v>
+        <v>3.40843</v>
       </c>
       <c r="O88" t="n">
         <v>1871306</v>
@@ -7573,7 +7573,7 @@
         <v>0.013</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0135572133316044</v>
+        <v>0.0135565233316841</v>
       </c>
       <c r="H89" t="n">
         <v>0.053</v>
@@ -7584,7 +7584,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0.00579</v>
+        <v>0.00578</v>
       </c>
       <c r="M89" t="n">
         <v>0.02</v>
@@ -7654,7 +7654,7 @@
         <v>0.013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0135572133316044</v>
+        <v>0.0135565233316841</v>
       </c>
       <c r="H90" t="n">
         <v>0.053</v>
@@ -7665,7 +7665,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00579</v>
+        <v>0.00578</v>
       </c>
       <c r="M90" t="n">
         <v>0.02</v>
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.00252</v>
+        <v>0.00274</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0087507730716867</v>
+        <v>0.0088055474988436</v>
       </c>
       <c r="H96" t="n">
         <v>0.0505298490608491</v>
@@ -8163,7 +8163,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00177</v>
+        <v>0.0019</v>
       </c>
       <c r="M96" t="n">
         <v>0.01761</v>
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00252</v>
+        <v>0.00274</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0087507730716867</v>
+        <v>0.0088055474988436</v>
       </c>
       <c r="H97" t="n">
         <v>0.0505298490608491</v>
@@ -8244,7 +8244,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00177</v>
+        <v>0.0019</v>
       </c>
       <c r="M97" t="n">
         <v>0.01761</v>
@@ -8314,7 +8314,7 @@
         <v>0.51145</v>
       </c>
       <c r="G98" t="n">
-        <v>0.479658409074033</v>
+        <v>0.479791372804702</v>
       </c>
       <c r="H98" t="n">
         <v>0.95</v>
@@ -8395,7 +8395,7 @@
         <v>0.51145</v>
       </c>
       <c r="G99" t="n">
-        <v>0.479658409074033</v>
+        <v>0.479791372804702</v>
       </c>
       <c r="H99" t="n">
         <v>0.95</v>
@@ -8549,7 +8549,7 @@
         <v>0.5305</v>
       </c>
       <c r="G101" t="n">
-        <v>0.493655783946912</v>
+        <v>0.493721456987407</v>
       </c>
       <c r="H101" t="n">
         <v>0.969</v>
@@ -8560,13 +8560,13 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.2515</v>
+        <v>0.25165</v>
       </c>
       <c r="M101" t="n">
-        <v>0.6877</v>
+        <v>0.68767</v>
       </c>
       <c r="N101" t="n">
-        <v>0.835</v>
+        <v>0.83514</v>
       </c>
       <c r="O101" t="n">
         <v>1871306</v>
@@ -8626,7 +8626,7 @@
         <v>0.5305</v>
       </c>
       <c r="G102" t="n">
-        <v>0.493655783946912</v>
+        <v>0.493721456987407</v>
       </c>
       <c r="H102" t="n">
         <v>0.969</v>
@@ -8637,13 +8637,13 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.2515</v>
+        <v>0.25165</v>
       </c>
       <c r="M102" t="n">
-        <v>0.6877</v>
+        <v>0.68767</v>
       </c>
       <c r="N102" t="n">
-        <v>0.835</v>
+        <v>0.83514</v>
       </c>
       <c r="O102" t="n">
         <v>1871306</v>
@@ -9092,13 +9092,13 @@
         <v>0.37</v>
       </c>
       <c r="G108" t="n">
-        <v>0.804809865244369</v>
+        <v>0.822883096975452</v>
       </c>
       <c r="H108" t="n">
         <v>4.2</v>
       </c>
       <c r="I108" t="n">
-        <v>3.55</v>
+        <v>3.56916</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -9109,7 +9109,7 @@
         <v>1.955</v>
       </c>
       <c r="N108" t="n">
-        <v>2.92078</v>
+        <v>3.4115</v>
       </c>
       <c r="O108" t="n">
         <v>1871306</v>
@@ -9173,7 +9173,7 @@
         <v>0.014</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0144843549274125</v>
+        <v>0.0144833960366005</v>
       </c>
       <c r="H109" t="n">
         <v>0.053</v>
@@ -9254,7 +9254,7 @@
         <v>0.014</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0144843549274125</v>
+        <v>0.0144833960366005</v>
       </c>
       <c r="H110" t="n">
         <v>0.053</v>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.00248</v>
+        <v>0.00271</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0054703654107443</v>
+        <v>0.005574907883462</v>
       </c>
       <c r="H116" t="n">
         <v>0.0277393845071206</v>
@@ -9763,10 +9763,10 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00148</v>
+        <v>0.00157</v>
       </c>
       <c r="M116" t="n">
-        <v>0.00848</v>
+        <v>0.00865</v>
       </c>
       <c r="N116" t="n">
         <v>0.02151</v>
@@ -9830,10 +9830,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.00248</v>
+        <v>0.00271</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0054703654107443</v>
+        <v>0.005574907883462</v>
       </c>
       <c r="H117" t="n">
         <v>0.0277393845071206</v>
@@ -9844,10 +9844,10 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00148</v>
+        <v>0.00157</v>
       </c>
       <c r="M117" t="n">
-        <v>0.00848</v>
+        <v>0.00865</v>
       </c>
       <c r="N117" t="n">
         <v>0.02151</v>
@@ -9914,7 +9914,7 @@
         <v>0.51295</v>
       </c>
       <c r="G118" t="n">
-        <v>0.479058409074033</v>
+        <v>0.479191372804702</v>
       </c>
       <c r="H118" t="n">
         <v>0.92</v>
@@ -9995,7 +9995,7 @@
         <v>0.51295</v>
       </c>
       <c r="G119" t="n">
-        <v>0.479058409074033</v>
+        <v>0.479191372804702</v>
       </c>
       <c r="H119" t="n">
         <v>0.92</v>
@@ -10146,24 +10146,24 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.5255</v>
+        <v>0.5253</v>
       </c>
       <c r="G121" t="n">
-        <v>0.491005783946912</v>
+        <v>0.491071456987407</v>
       </c>
       <c r="H121" t="n">
         <v>0.951</v>
       </c>
       <c r="I121" t="n">
-        <v>0.85</v>
+        <v>0.8501</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.2665</v>
+        <v>0.26665</v>
       </c>
       <c r="M121" t="n">
-        <v>0.6943</v>
+        <v>0.69423</v>
       </c>
       <c r="N121" t="n">
         <v>0.835</v>
@@ -10223,24 +10223,24 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.5255</v>
+        <v>0.5253</v>
       </c>
       <c r="G122" t="n">
-        <v>0.491005783946912</v>
+        <v>0.491071456987407</v>
       </c>
       <c r="H122" t="n">
         <v>0.951</v>
       </c>
       <c r="I122" t="n">
-        <v>0.85</v>
+        <v>0.8501</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.2665</v>
+        <v>0.26665</v>
       </c>
       <c r="M122" t="n">
-        <v>0.6943</v>
+        <v>0.69423</v>
       </c>
       <c r="N122" t="n">
         <v>0.835</v>
@@ -10692,10 +10692,10 @@
         <v>0.2425</v>
       </c>
       <c r="G128" t="n">
-        <v>0.359859865244369</v>
+        <v>0.377933096975452</v>
       </c>
       <c r="H128" t="n">
-        <v>2.71539460977475</v>
+        <v>3.43832387901806</v>
       </c>
       <c r="I128" t="n">
         <v>1.375</v>
@@ -10773,7 +10773,7 @@
         <v>0.017</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0161176882607458</v>
+        <v>0.0161167293699338</v>
       </c>
       <c r="H129" t="n">
         <v>0.053</v>
@@ -10854,7 +10854,7 @@
         <v>0.017</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0161176882607458</v>
+        <v>0.0161167293699338</v>
       </c>
       <c r="H130" t="n">
         <v>0.053</v>
@@ -11349,10 +11349,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.00297</v>
+        <v>0.0031</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0055361828186324</v>
+        <v>0.0056770075964387</v>
       </c>
       <c r="H136" t="n">
         <v>0.0277393845071206</v>
@@ -11363,7 +11363,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.0026</v>
+        <v>0.00277</v>
       </c>
       <c r="M136" t="n">
         <v>0.01102</v>
@@ -11430,10 +11430,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.00297</v>
+        <v>0.0031</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0055361828186324</v>
+        <v>0.0056770075964387</v>
       </c>
       <c r="H137" t="n">
         <v>0.0277393845071206</v>
@@ -11444,7 +11444,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.0026</v>
+        <v>0.00277</v>
       </c>
       <c r="M137" t="n">
         <v>0.01102</v>
@@ -11514,7 +11514,7 @@
         <v>0.50895</v>
       </c>
       <c r="G138" t="n">
-        <v>0.488188409074033</v>
+        <v>0.488321372804702</v>
       </c>
       <c r="H138" t="n">
         <v>0.8514</v>
@@ -11595,7 +11595,7 @@
         <v>0.50895</v>
       </c>
       <c r="G139" t="n">
-        <v>0.488188409074033</v>
+        <v>0.488321372804702</v>
       </c>
       <c r="H139" t="n">
         <v>0.8514</v>
@@ -11749,13 +11749,13 @@
         <v>0.515</v>
       </c>
       <c r="G141" t="n">
-        <v>0.499822450613579</v>
+        <v>0.49991479032074</v>
       </c>
       <c r="H141" t="n">
         <v>0.866</v>
       </c>
       <c r="I141" t="n">
-        <v>0.835</v>
+        <v>0.8351</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -11763,7 +11763,7 @@
         <v>0.31</v>
       </c>
       <c r="M141" t="n">
-        <v>0.6943</v>
+        <v>0.69423</v>
       </c>
       <c r="N141" t="n">
         <v>0.8110000000000001</v>
@@ -11826,13 +11826,13 @@
         <v>0.515</v>
       </c>
       <c r="G142" t="n">
-        <v>0.499822450613579</v>
+        <v>0.49991479032074</v>
       </c>
       <c r="H142" t="n">
         <v>0.866</v>
       </c>
       <c r="I142" t="n">
-        <v>0.835</v>
+        <v>0.8351</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -11840,7 +11840,7 @@
         <v>0.31</v>
       </c>
       <c r="M142" t="n">
-        <v>0.6943</v>
+        <v>0.69423</v>
       </c>
       <c r="N142" t="n">
         <v>0.8110000000000001</v>
@@ -12373,7 +12373,7 @@
         <v>0.0145</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0161154262719676</v>
+        <v>0.0161140397760785</v>
       </c>
       <c r="H149" t="n">
         <v>0.053</v>
@@ -12454,7 +12454,7 @@
         <v>0.0145</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0161154262719676</v>
+        <v>0.0161140397760785</v>
       </c>
       <c r="H150" t="n">
         <v>0.053</v>
@@ -12949,10 +12949,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.00352</v>
+        <v>0.00375</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0064344989987677</v>
+        <v>0.0066040120111104</v>
       </c>
       <c r="H156" t="n">
         <v>0.0259872259965956</v>
@@ -12963,10 +12963,10 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.00372</v>
+        <v>0.00393</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0111</v>
+        <v>0.0112</v>
       </c>
       <c r="N156" t="n">
         <v>0.01993</v>
@@ -13030,10 +13030,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.00352</v>
+        <v>0.00375</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0064344989987677</v>
+        <v>0.0066040120111104</v>
       </c>
       <c r="H157" t="n">
         <v>0.0259872259965956</v>
@@ -13044,10 +13044,10 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.00372</v>
+        <v>0.00393</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0111</v>
+        <v>0.0112</v>
       </c>
       <c r="N157" t="n">
         <v>0.01993</v>
@@ -13114,7 +13114,7 @@
         <v>0.509</v>
       </c>
       <c r="G158" t="n">
-        <v>0.481501742407367</v>
+        <v>0.481634706138035</v>
       </c>
       <c r="H158" t="n">
         <v>0.888</v>
@@ -13195,7 +13195,7 @@
         <v>0.509</v>
       </c>
       <c r="G159" t="n">
-        <v>0.481501742407367</v>
+        <v>0.481634706138035</v>
       </c>
       <c r="H159" t="n">
         <v>0.888</v>
@@ -13349,7 +13349,7 @@
         <v>0.515</v>
       </c>
       <c r="G161" t="n">
-        <v>0.493939117280245</v>
+        <v>0.494053123654073</v>
       </c>
       <c r="H161" t="n">
         <v>0.91</v>
@@ -13426,7 +13426,7 @@
         <v>0.515</v>
       </c>
       <c r="G162" t="n">
-        <v>0.493939117280245</v>
+        <v>0.494053123654073</v>
       </c>
       <c r="H162" t="n">
         <v>0.91</v>
@@ -13973,7 +13973,7 @@
         <v>0.016</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0168790296024299</v>
+        <v>0.0168776404129749</v>
       </c>
       <c r="H169" t="n">
         <v>0.053</v>
@@ -14054,7 +14054,7 @@
         <v>0.016</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0168790296024299</v>
+        <v>0.0168776404129749</v>
       </c>
       <c r="H170" t="n">
         <v>0.053</v>
@@ -14549,10 +14549,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.00504</v>
+        <v>0.00523</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0078848744402139</v>
+        <v>0.0080468622517027</v>
       </c>
       <c r="H176" t="n">
         <v>0.0313185921207561</v>
@@ -14563,7 +14563,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.00512</v>
+        <v>0.00535</v>
       </c>
       <c r="M176" t="n">
         <v>0.01399</v>
@@ -14630,10 +14630,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.00504</v>
+        <v>0.00523</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0078848744402139</v>
+        <v>0.0080468622517027</v>
       </c>
       <c r="H177" t="n">
         <v>0.0313185921207561</v>
@@ -14644,7 +14644,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>0.00512</v>
+        <v>0.00535</v>
       </c>
       <c r="M177" t="n">
         <v>0.01399</v>
@@ -14714,7 +14714,7 @@
         <v>0.513</v>
       </c>
       <c r="G178" t="n">
-        <v>0.478205161770203</v>
+        <v>0.478340379123426</v>
       </c>
       <c r="H178" t="n">
         <v>0.888</v>
@@ -14795,7 +14795,7 @@
         <v>0.513</v>
       </c>
       <c r="G179" t="n">
-        <v>0.478205161770203</v>
+        <v>0.478340379123426</v>
       </c>
       <c r="H179" t="n">
         <v>0.888</v>
@@ -14949,7 +14949,7 @@
         <v>0.521</v>
       </c>
       <c r="G181" t="n">
-        <v>0.49114147520025</v>
+        <v>0.491260803716007</v>
       </c>
       <c r="H181" t="n">
         <v>0.91</v>
@@ -15026,7 +15026,7 @@
         <v>0.521</v>
       </c>
       <c r="G182" t="n">
-        <v>0.49114147520025</v>
+        <v>0.491260803716007</v>
       </c>
       <c r="H182" t="n">
         <v>0.91</v>
@@ -15492,13 +15492,13 @@
         <v>0.4875</v>
       </c>
       <c r="G188" t="n">
-        <v>1.2948420414946</v>
+        <v>1.35255924934812</v>
       </c>
       <c r="H188" t="n">
-        <v>6.72003141255133</v>
+        <v>8.352906132224289</v>
       </c>
       <c r="I188" t="n">
-        <v>4.25018</v>
+        <v>5.04799</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15509,7 +15509,7 @@
         <v>2.8</v>
       </c>
       <c r="N188" t="n">
-        <v>3.51005</v>
+        <v>3.52551</v>
       </c>
       <c r="O188" t="n">
         <v>1871306</v>
@@ -15573,7 +15573,7 @@
         <v>0.015</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0163705810283611</v>
+        <v>0.0163701461757404</v>
       </c>
       <c r="H189" t="n">
         <v>0.047</v>
@@ -15654,7 +15654,7 @@
         <v>0.015</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0163705810283611</v>
+        <v>0.0163701461757404</v>
       </c>
       <c r="H190" t="n">
         <v>0.047</v>
@@ -16149,10 +16149,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00552</v>
+        <v>0.00571</v>
       </c>
       <c r="G196" t="n">
-        <v>0.008062137815205799</v>
+        <v>0.008187133931982501</v>
       </c>
       <c r="H196" t="n">
         <v>0.0313185921207561</v>
@@ -16163,7 +16163,7 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>0.00579</v>
+        <v>0.00589</v>
       </c>
       <c r="M196" t="n">
         <v>0.01332</v>
@@ -16230,10 +16230,10 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.00552</v>
+        <v>0.00571</v>
       </c>
       <c r="G197" t="n">
-        <v>0.008062137815205799</v>
+        <v>0.008187133931982501</v>
       </c>
       <c r="H197" t="n">
         <v>0.0313185921207561</v>
@@ -16244,7 +16244,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>0.00579</v>
+        <v>0.00589</v>
       </c>
       <c r="M197" t="n">
         <v>0.01332</v>
@@ -16549,7 +16549,7 @@
         <v>0.515</v>
       </c>
       <c r="G201" t="n">
-        <v>0.48335593220339</v>
+        <v>0.483322033898305</v>
       </c>
       <c r="H201" t="n">
         <v>0.91</v>
@@ -16626,7 +16626,7 @@
         <v>0.515</v>
       </c>
       <c r="G202" t="n">
-        <v>0.48335593220339</v>
+        <v>0.483322033898305</v>
       </c>
       <c r="H202" t="n">
         <v>0.91</v>
@@ -17092,13 +17092,13 @@
         <v>0.8</v>
       </c>
       <c r="G208" t="n">
-        <v>1.48569527545573</v>
+        <v>1.54785226852875</v>
       </c>
       <c r="H208" t="n">
-        <v>6.72003141255133</v>
+        <v>8.352906132224289</v>
       </c>
       <c r="I208" t="n">
-        <v>4.3209</v>
+        <v>5.12586</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17109,7 +17109,7 @@
         <v>2.866</v>
       </c>
       <c r="N208" t="n">
-        <v>3.6709</v>
+        <v>3.93365</v>
       </c>
       <c r="O208" t="n">
         <v>1871306</v>
@@ -17173,7 +17173,7 @@
         <v>0.0145</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0179804186322984</v>
+        <v>0.0179799762822187</v>
       </c>
       <c r="H209" t="n">
         <v>0.066</v>
@@ -17254,7 +17254,7 @@
         <v>0.0145</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0179804186322984</v>
+        <v>0.0179799762822187</v>
       </c>
       <c r="H210" t="n">
         <v>0.066</v>
@@ -17749,10 +17749,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00662</v>
+        <v>0.00684</v>
       </c>
       <c r="G216" t="n">
-        <v>0.009409107620718501</v>
+        <v>0.0094817148270136</v>
       </c>
       <c r="H216" t="n">
         <v>0.0339935764601256</v>
@@ -17763,7 +17763,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.00637</v>
+        <v>0.0066</v>
       </c>
       <c r="M216" t="n">
         <v>0.01405</v>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00662</v>
+        <v>0.00684</v>
       </c>
       <c r="G217" t="n">
-        <v>0.009409107620718501</v>
+        <v>0.0094817148270136</v>
       </c>
       <c r="H217" t="n">
         <v>0.0339935764601256</v>
@@ -17844,7 +17844,7 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.00637</v>
+        <v>0.0066</v>
       </c>
       <c r="M217" t="n">
         <v>0.01405</v>
@@ -18149,7 +18149,7 @@
         <v>0.507</v>
       </c>
       <c r="G221" t="n">
-        <v>0.466862068965517</v>
+        <v>0.466818965517241</v>
       </c>
       <c r="H221" t="n">
         <v>0.91</v>
@@ -18226,7 +18226,7 @@
         <v>0.507</v>
       </c>
       <c r="G222" t="n">
-        <v>0.466862068965517</v>
+        <v>0.466818965517241</v>
       </c>
       <c r="H222" t="n">
         <v>0.91</v>
@@ -18585,6 +18585,1606 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.4611</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.6045263592699</v>
+      </c>
+      <c r="H228" t="n">
+        <v>8.352906132224289</v>
+      </c>
+      <c r="I228" t="n">
+        <v>5.1648</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N228" t="n">
+        <v>4.13772</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0174799762822187</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0174799762822187</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="G231" t="n">
+        <v>945.275862068965</v>
+      </c>
+      <c r="H231" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I231" t="n">
+        <v>5460</v>
+      </c>
+      <c r="J231" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K231" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L231" t="n">
+        <v>163</v>
+      </c>
+      <c r="M231" t="n">
+        <v>690</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1472</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="G232" t="n">
+        <v>945.275862068965</v>
+      </c>
+      <c r="H232" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I232" t="n">
+        <v>5460</v>
+      </c>
+      <c r="J232" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K232" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L232" t="n">
+        <v>163</v>
+      </c>
+      <c r="M232" t="n">
+        <v>690</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1472</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="G233" t="n">
+        <v>945.275862068965</v>
+      </c>
+      <c r="H233" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I233" t="n">
+        <v>5460</v>
+      </c>
+      <c r="J233" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K233" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L233" t="n">
+        <v>163</v>
+      </c>
+      <c r="M233" t="n">
+        <v>690</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1472</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="G234" t="n">
+        <v>945.275862068965</v>
+      </c>
+      <c r="H234" t="n">
+        <v>17000</v>
+      </c>
+      <c r="I234" t="n">
+        <v>5460</v>
+      </c>
+      <c r="J234" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K234" t="n">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="L234" t="n">
+        <v>163</v>
+      </c>
+      <c r="M234" t="n">
+        <v>690</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1472</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>106.15</v>
+      </c>
+      <c r="G235" t="n">
+        <v>108.63</v>
+      </c>
+      <c r="H235" t="n">
+        <v>120</v>
+      </c>
+      <c r="I235" t="n">
+        <v>120</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>107</v>
+      </c>
+      <c r="M235" t="n">
+        <v>116.15</v>
+      </c>
+      <c r="N235" t="n">
+        <v>120</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.00791</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.0100414352936411</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.0339935764601256</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.02731</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.00784</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.01872</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.02429</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.00791</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.0100414352936411</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.0339935764601256</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.02731</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.00784</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.01872</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.02429</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.5305</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.488620689655172</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.6786</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.82186</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.5305</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.488620689655172</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.6786</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.82186</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="G240" t="n">
+        <v>5.4704</v>
+      </c>
+      <c r="H240" t="n">
+        <v>6.939</v>
+      </c>
+      <c r="I240" t="n">
+        <v>6.939</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="M240" t="n">
+        <v>6.73635</v>
+      </c>
+      <c r="N240" t="n">
+        <v>6.939</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.501629310344828</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.6896</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.83716</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.501629310344828</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.6896</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.83716</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.713793103448276</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.184</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.9392</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1.1386</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.713793103448276</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.184</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.9392</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1.1386</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.1478</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.07883999999999999</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.10658</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Mangatoro at Mangahei Road</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.1478</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.07883999999999999</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.10658</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1871306</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5540203</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Mana_1c</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
+++ b/state_results/Rivers/MangatoroatMangaheiRoad_6572270dca.xlsx
@@ -570,7 +570,7 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.70215642819508</v>
+        <v>1.70767554073216</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
@@ -1939,7 +1939,7 @@
         <v>1.24</v>
       </c>
       <c r="G19" t="n">
-        <v>1.59226094344682</v>
+        <v>1.59766967373315</v>
       </c>
       <c r="H19" t="n">
         <v>5.6</v>
@@ -3308,7 +3308,7 @@
         <v>1.05</v>
       </c>
       <c r="G36" t="n">
-        <v>1.63820457726557</v>
+        <v>1.64321266086403</v>
       </c>
       <c r="H36" t="n">
         <v>5.6</v>
@@ -4677,13 +4677,13 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>1.36152856356998</v>
+        <v>1.4067731181488</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>5.33962598448513</v>
       </c>
       <c r="I53" t="n">
-        <v>4.20078</v>
+        <v>4.5304</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>2.5</v>
       </c>
       <c r="N53" t="n">
-        <v>3.61103</v>
+        <v>4.03</v>
       </c>
       <c r="O53" t="n">
         <v>1871306</v>
@@ -6046,13 +6046,13 @@
         <v>0.75</v>
       </c>
       <c r="G70" t="n">
-        <v>1.22001415178684</v>
+        <v>1.2663873738714</v>
       </c>
       <c r="H70" t="n">
-        <v>4.2</v>
+        <v>5.33962598448513</v>
       </c>
       <c r="I70" t="n">
-        <v>3.55608</v>
+        <v>3.925</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>3.40843</v>
+        <v>3.466</v>
       </c>
       <c r="O70" t="n">
         <v>1871306</v>
@@ -7492,13 +7492,13 @@
         <v>0.5</v>
       </c>
       <c r="G88" t="n">
-        <v>1.10439814339068</v>
+        <v>1.15077136547525</v>
       </c>
       <c r="H88" t="n">
-        <v>4.2</v>
+        <v>5.33962598448513</v>
       </c>
       <c r="I88" t="n">
-        <v>3.55608</v>
+        <v>3.925</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -7509,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>3.40843</v>
+        <v>3.466</v>
       </c>
       <c r="O88" t="n">
         <v>1871306</v>
@@ -9092,13 +9092,13 @@
         <v>0.37</v>
       </c>
       <c r="G108" t="n">
-        <v>0.822883096975452</v>
+        <v>0.870415649612128</v>
       </c>
       <c r="H108" t="n">
-        <v>4.2</v>
+        <v>5.33962598448513</v>
       </c>
       <c r="I108" t="n">
-        <v>3.56916</v>
+        <v>3.95</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -9109,7 +9109,7 @@
         <v>1.955</v>
       </c>
       <c r="N108" t="n">
-        <v>3.4115</v>
+        <v>3.49</v>
       </c>
       <c r="O108" t="n">
         <v>1871306</v>
@@ -10692,10 +10692,10 @@
         <v>0.2425</v>
       </c>
       <c r="G128" t="n">
-        <v>0.377933096975452</v>
+        <v>0.425465649612128</v>
       </c>
       <c r="H128" t="n">
-        <v>3.43832387901806</v>
+        <v>5.33962598448513</v>
       </c>
       <c r="I128" t="n">
         <v>1.375</v>
@@ -15492,13 +15492,13 @@
         <v>0.4875</v>
       </c>
       <c r="G188" t="n">
-        <v>1.35255924934812</v>
+        <v>1.28934142965145</v>
       </c>
       <c r="H188" t="n">
-        <v>8.352906132224289</v>
+        <v>6.03043205531329</v>
       </c>
       <c r="I188" t="n">
-        <v>5.04799</v>
+        <v>4.78816</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15509,7 +15509,7 @@
         <v>2.8</v>
       </c>
       <c r="N188" t="n">
-        <v>3.52551</v>
+        <v>3.52006</v>
       </c>
       <c r="O188" t="n">
         <v>1871306</v>
@@ -17092,13 +17092,13 @@
         <v>0.8</v>
       </c>
       <c r="G208" t="n">
-        <v>1.54785226852875</v>
+        <v>1.47977153962464</v>
       </c>
       <c r="H208" t="n">
-        <v>8.352906132224289</v>
+        <v>6.03043205531329</v>
       </c>
       <c r="I208" t="n">
-        <v>5.12586</v>
+        <v>4.86968</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17109,7 +17109,7 @@
         <v>2.866</v>
       </c>
       <c r="N208" t="n">
-        <v>3.93365</v>
+        <v>3.84097</v>
       </c>
       <c r="O208" t="n">
         <v>1871306</v>
@@ -18692,13 +18692,13 @@
         <v>0.85</v>
       </c>
       <c r="G228" t="n">
-        <v>1.6045263592699</v>
+        <v>1.53372240120962</v>
       </c>
       <c r="H228" t="n">
-        <v>8.352906132224289</v>
+        <v>6.03043205531329</v>
       </c>
       <c r="I228" t="n">
-        <v>5.1648</v>
+        <v>4.91044</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -18709,7 +18709,7 @@
         <v>2.9</v>
       </c>
       <c r="N228" t="n">
-        <v>4.13772</v>
+        <v>4.00142</v>
       </c>
       <c r="O228" t="n">
         <v>1871306</v>
